--- a/Bundel/bestellijst.xlsx
+++ b/Bundel/bestellijst.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5TICT socquet\OneDrive\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5TICT socquet\Documents\GIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>naam:</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>22,00 $</t>
+  </si>
+  <si>
+    <t>BH1750FVI</t>
+  </si>
+  <si>
+    <t>0,99$</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +433,15 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -471,8 +486,9 @@
     <hyperlink ref="C10" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Bundel/bestellijst.xlsx
+++ b/Bundel/bestellijst.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5TICT socquet\Documents\GIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599A4E51-3334-43B0-9481-6723A590A240}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>naam:</t>
   </si>
@@ -66,14 +67,18 @@
   </si>
   <si>
     <t>0,99$</t>
+  </si>
+  <si>
+    <t>BEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,16 +118,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,14 +487,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.68</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{5AEA7249-343C-4BC6-9EE8-D9FF9593AA37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Bundel/bestellijst.xlsx
+++ b/Bundel/bestellijst.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leerling\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599A4E51-3334-43B0-9481-6723A590A240}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>naam:</t>
   </si>
@@ -42,9 +41,6 @@
     <t>CO²</t>
   </si>
   <si>
-    <t>gps tracker</t>
-  </si>
-  <si>
     <t>kostprijs:</t>
   </si>
   <si>
@@ -57,28 +53,80 @@
     <t>temperatuur &amp; humidity</t>
   </si>
   <si>
-    <t>arduino</t>
-  </si>
-  <si>
-    <t>22,00 $</t>
-  </si>
-  <si>
     <t>BH1750FVI</t>
   </si>
   <si>
     <t>0,99$</t>
   </si>
   <si>
-    <t>BEC</t>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>SIM900</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>CCS811</t>
+  </si>
+  <si>
+    <t>€ 24,14</t>
+  </si>
+  <si>
+    <t>Controllers:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Voeding:</t>
+  </si>
+  <si>
+    <t>Batterij</t>
+  </si>
+  <si>
+    <t>5V 5A voeding</t>
+  </si>
+  <si>
+    <t>Turingy 5Ah 3S 20C</t>
+  </si>
+  <si>
+    <t>€22.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 B+</t>
+  </si>
+  <si>
+    <t>GSM Shield</t>
+  </si>
+  <si>
+    <t>I2C ADC</t>
+  </si>
+  <si>
+    <t>ADS1115</t>
+  </si>
+  <si>
+    <t>Stroom</t>
+  </si>
+  <si>
+    <t>ACS712</t>
+  </si>
+  <si>
+    <t>Spanning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
-    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,17 +166,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,94 +468,207 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
         <v>2.68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{5AEA7249-343C-4BC6-9EE8-D9FF9593AA37}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C16" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
+    <hyperlink ref="C7" r:id="rId9"/>
+    <hyperlink ref="C8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Bundel/bestellijst.xlsx
+++ b/Bundel/bestellijst.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leerling\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080AE50-460F-40D3-A418-A262E2F4E82E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>naam:</t>
   </si>
@@ -47,21 +48,12 @@
     <t>link</t>
   </si>
   <si>
-    <t>12,78 $</t>
-  </si>
-  <si>
     <t>temperatuur &amp; humidity</t>
   </si>
   <si>
     <t>BH1750FVI</t>
   </si>
   <si>
-    <t>0,99$</t>
-  </si>
-  <si>
-    <t>Raspberry Pi</t>
-  </si>
-  <si>
     <t>SIM900</t>
   </si>
   <si>
@@ -74,15 +66,9 @@
     <t>CCS811</t>
   </si>
   <si>
-    <t>€ 24,14</t>
-  </si>
-  <si>
     <t>Controllers:</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Voeding:</t>
   </si>
   <si>
@@ -95,21 +81,9 @@
     <t>Turingy 5Ah 3S 20C</t>
   </si>
   <si>
-    <t>€22.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 B+</t>
-  </si>
-  <si>
     <t>GSM Shield</t>
   </si>
   <si>
-    <t>I2C ADC</t>
-  </si>
-  <si>
-    <t>ADS1115</t>
-  </si>
-  <si>
     <t>Stroom</t>
   </si>
   <si>
@@ -117,18 +91,36 @@
   </si>
   <si>
     <t>Spanning</t>
+  </si>
+  <si>
+    <t>$     24,14</t>
+  </si>
+  <si>
+    <t>$      0,99</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>BESTELLIJST LUCHTKWALITEIT</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Uno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
-    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +132,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,22 +161,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" activeCellId="2" sqref="A16:D16 J12 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,109 +470,89 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
         <v>2.13</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
         <v>1.6</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -578,97 +560,98 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
         <v>39.950000000000003</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4">
         <v>2.68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C17" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="C16" r:id="rId7"/>
-    <hyperlink ref="C13" r:id="rId8"/>
-    <hyperlink ref="C7" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Bundel/bestellijst.xlsx
+++ b/Bundel/bestellijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080AE50-460F-40D3-A418-A262E2F4E82E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1072F-5F19-4BCD-889F-16B01FB83463}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>naam:</t>
   </si>
@@ -102,13 +102,43 @@
     <t>/</t>
   </si>
   <si>
-    <t>BESTELLIJST LUCHTKWALITEIT</t>
-  </si>
-  <si>
     <t>Arduino</t>
   </si>
   <si>
     <t>Uno</t>
+  </si>
+  <si>
+    <t>MATERIALENLIJST LUCHTKWALITEIT</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>type:</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Arduino IDE</t>
+  </si>
+  <si>
+    <t>OneWire</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>DHT</t>
   </si>
 </sst>
 </file>
@@ -117,8 +147,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,12 +199,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -457,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="2" sqref="A16:D16 J12 C9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,190 +498,242 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
         <v>12.78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4">
         <v>2.68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Bundel/bestellijst.xlsx
+++ b/Bundel/bestellijst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\GitHub\GIP\Bundel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1072F-5F19-4BCD-889F-16B01FB83463}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA45A796-D4F4-4BC9-8186-36B8DCF2A413}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>naam:</t>
   </si>
@@ -39,9 +39,6 @@
     <t>licht</t>
   </si>
   <si>
-    <t>CO²</t>
-  </si>
-  <si>
     <t>kostprijs:</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>Batterij</t>
   </si>
   <si>
-    <t>5V 5A voeding</t>
-  </si>
-  <si>
-    <t>Turingy 5Ah 3S 20C</t>
-  </si>
-  <si>
     <t>GSM Shield</t>
   </si>
   <si>
@@ -139,18 +130,47 @@
   </si>
   <si>
     <t>DHT</t>
+  </si>
+  <si>
+    <t>6x AA</t>
+  </si>
+  <si>
+    <t>€ 29,70</t>
+  </si>
+  <si>
+    <t>Batterij houder</t>
+  </si>
+  <si>
+    <r>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>€3,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +187,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -196,7 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -205,11 +239,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,7 +525,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,15 +539,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -520,19 +555,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,99 +586,99 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>2.13</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>1.6</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
         <v>0.24</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -651,19 +686,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
         <v>39.950000000000003</v>
@@ -671,13 +706,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>12.78</v>
@@ -689,36 +724,33 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2.68</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -726,12 +758,12 @@
     <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{0973E49A-F376-4802-82F9-57D35FDD121B}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{144784ED-F0E1-4CF6-8E6A-2BB906A87AF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId10"/>
